--- a/inst/extdata/locations.xlsx
+++ b/inst/extdata/locations.xlsx
@@ -12,57 +12,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">location</t>
   </si>
   <si>
-    <t xml:space="preserve">pet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hdpe_pp</t>
+    <t xml:space="preserve">latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beachwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golf Course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenhub</t>
   </si>
   <si>
     <t xml:space="preserve">Johanna Road</t>
   </si>
   <si>
-    <t xml:space="preserve">Golf Course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beach-wood</t>
+    <t xml:space="preserve">KwaMashu</t>
   </si>
   <si>
     <t xml:space="preserve">Quarry Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kwa-mashu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenhub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,9 +75,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,204 +380,71 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>44810</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" t="n">
+        <v>-29.8079305555556</v>
+      </c>
+      <c r="C2" t="n">
+        <v>31.0384138888889</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>44811</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3" t="n">
+        <v>-29.7828</v>
+      </c>
+      <c r="C3" t="n">
+        <v>31.0522333333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>44819</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B4" t="n">
+        <v>-29.8124944444444</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31.0370972222222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>44820</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B5" t="n">
+        <v>-29.7957805555556</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30.9940833333333</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>44832</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B6" t="n">
+        <v>-29.7399277777778</v>
       </c>
       <c r="C6" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>67.6</v>
+        <v>30.9944722222222</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>44833</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-29.8033277777778</v>
       </c>
       <c r="C7" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>44838</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>44844</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>44848</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>44851</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>70.4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>44853</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>106.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>44855</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>44859</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>44861</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>70</v>
+        <v>30.9751138888889</v>
       </c>
     </row>
   </sheetData>
